--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
     <sheet name="GEN MCU" sheetId="1" r:id="rId2"/>
-    <sheet name="GEN" sheetId="2" r:id="rId3"/>
+    <sheet name="GEN Main" sheetId="2" r:id="rId3"/>
     <sheet name="Ctrl MCU" sheetId="4" r:id="rId4"/>
-    <sheet name="Ctrl PCB" sheetId="3" r:id="rId5"/>
+    <sheet name="Ctrl Main" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,18 +44,6 @@
     <t>Board dead 원인 파악</t>
   </si>
   <si>
-    <t>DC-DC Regulator가 dead 되는지 확인</t>
-  </si>
-  <si>
-    <t>FST10-5FFM</t>
-  </si>
-  <si>
-    <t>Fuse dead 발생 여부</t>
-  </si>
-  <si>
-    <t>250VAC 5A</t>
-  </si>
-  <si>
     <t>Transformer 1,2차 coil중 어느쪽이 dead되는지 확인 - 1차측이 죽을 것으로 예상됨</t>
   </si>
   <si>
@@ -63,21 +51,6 @@
   </si>
   <si>
     <t>회로 보강</t>
-  </si>
-  <si>
-    <t>+5V, +15V DC/DC output에 콘덴서 추가</t>
-  </si>
-  <si>
-    <t>15V bias Transistor에 Bias 저항 필요 여부 확인</t>
-  </si>
-  <si>
-    <t>Q1,Q2,Q3,Q4</t>
-  </si>
-  <si>
-    <t>2차측은 전류가 낮으므로 current detect이 안될것으로 판단됨 - 1차측에 연결 검토</t>
-  </si>
-  <si>
-    <t>CAS_6-NP</t>
   </si>
   <si>
     <t>Category</t>
@@ -129,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Check item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Current transducer의 Vout 확인 - Power별로 Vout 측정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. OP-Amp trim-R 설정치 확인 - 사용하지 않을 것으로 보임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Load Short 발생시 2차측 전압이 역으로 유기되는지 확인 필요 - Pipette dead 원인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +217,84 @@
   </si>
   <si>
     <t>H/W ID 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01,#02 정상 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Transducer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A : Vout=2.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측은 전류가 낮으므로 current detect이 안될것으로 판단됨 - 1차측에 연결 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP-Amp trim-R 설정치 확인 - 사용하지 않을 것으로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current transducer의 Vout 확인 - Power별로 Vout 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FST10-5FFM : +5V, +15V DC/DC output에 콘덴서 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3,Q4 : 15V bias Transistor에 Bias 저항 필요 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuse dead 발생 여부(250VAC 5A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC Regulator(FST10-5FFM)가 dead 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 Board #01,#02 원인 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하네스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러그 작업 불량 : 압착 불량
+ - wire가 얇은 경우, 한번 접어서 압착을 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FST10-5FFM를 사용하지 않고 외부 SMPS를 사용하도록 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,9 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +778,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -751,9 +855,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -802,7 +903,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +938,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>4</v>
@@ -1087,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1095,20 +1196,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E6" s="53">
         <v>43194</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="52" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I6" s="55"/>
     </row>
@@ -1420,7 +1521,7 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="62" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="61" customWidth="1"/>
     <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="69.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1441,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1452,13 +1553,13 @@
         <v>43150</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1469,13 +1570,13 @@
         <v>43150</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1486,13 +1587,13 @@
         <v>43150</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1503,13 +1604,13 @@
         <v>43150</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1520,13 +1621,13 @@
         <v>43169</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1537,13 +1638,13 @@
         <v>43193</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1554,13 +1655,13 @@
         <v>43193</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -1571,10 +1672,10 @@
         <v>43196</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -1718,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="63"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
@@ -1736,245 +1837,441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="61">
+      <c r="G2" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="65">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="65"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="65"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="22" t="s">
+      <c r="G6" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="65"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="65"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="65"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="65">
+        <v>2</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="61">
-        <v>2</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="61">
+      <c r="D11" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="65"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="81">
         <v>3</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="84"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="84"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="81">
+        <v>4</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="74">
+        <v>43198</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="84"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="84"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+    </row>
+    <row r="23" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="84"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="82"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="74"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="74"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="25"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="25"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
+  <mergeCells count="8">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2009,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2020,10 +2317,10 @@
         <v>43169</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2035,10 +2332,10 @@
         <v>43193</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -2050,10 +2347,10 @@
         <v>43193</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -2065,10 +2362,10 @@
         <v>43193</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -2080,10 +2377,10 @@
         <v>43193</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -2095,10 +2392,10 @@
         <v>43196</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -2110,10 +2407,10 @@
         <v>43196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -2264,7 +2561,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2281,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -2295,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -2306,7 +2603,7 @@
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -2314,7 +2611,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -2322,7 +2619,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -2337,10 +2634,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" s="23"/>
     </row>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Ctrl MCU" sheetId="4" r:id="rId4"/>
     <sheet name="Ctrl Main" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Program UI image 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +287,37 @@
   </si>
   <si>
     <t>FST10-5FFM를 사용하지 않고 외부 SMPS를 사용하도록 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Generator Power별로 구별 방법?
+ 1) Power별 구별하여 Program install
+ 2) Generator MCU F/W 구별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP-Amp Output 및 ADC Jummper를 Open해도 PWM이 출력됨
+ - current monitor및 Power limit algorism이 없는 것으로 판단됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,33 +762,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,12 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,24 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +824,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1149,357 +1172,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="9" style="47"/>
-    <col min="8" max="8" width="48.125" customWidth="1"/>
-    <col min="9" max="9" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="60"/>
+    <col min="2" max="2" width="6.5" style="60" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="60" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="60" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9" style="79"/>
+    <col min="8" max="8" width="48.125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="60" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="48" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="51">
+      <c r="B6" s="80">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="82">
+        <v>43194</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="53">
-        <v>43194</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="25">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="84">
         <v>2</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="61">
+        <v>43199</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="25">
+      <c r="B8" s="84">
         <v>3</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="25">
+      <c r="B9" s="84">
         <v>4</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="25">
+      <c r="B10" s="84">
         <v>5</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="25">
+      <c r="B11" s="84">
         <v>6</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="25">
+      <c r="B12" s="84">
         <v>7</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="25">
+      <c r="B13" s="84">
         <v>8</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
+      <c r="B14" s="84">
         <v>9</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
+      <c r="B15" s="84">
         <v>10</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="25">
+      <c r="B16" s="84">
         <v>11</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+      <c r="B17" s="84">
         <v>12</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
+      <c r="B18" s="84">
         <v>13</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+      <c r="B19" s="84">
         <v>14</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+      <c r="B20" s="84">
         <v>15</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="B21" s="84">
         <v>16</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+      <c r="B22" s="84">
         <v>17</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="25">
+      <c r="B23" s="84">
         <v>18</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="25">
+      <c r="B24" s="84">
         <v>19</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="25">
+      <c r="B25" s="84">
         <v>20</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="25">
+      <c r="B26" s="84">
         <v>21</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="25">
+      <c r="B27" s="84">
         <v>22</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="25">
+      <c r="B28" s="84">
         <v>23</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="25">
+      <c r="B29" s="84">
         <v>24</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="25">
+      <c r="B30" s="84">
         <v>25</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1521,7 +1556,7 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="61" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="50" customWidth="1"/>
     <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="69.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1672,10 +1707,10 @@
         <v>43196</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -1819,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
@@ -1842,8 +1877,8 @@
   </sheetPr>
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1851,7 +1886,7 @@
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="77.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
@@ -1865,63 +1900,63 @@
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>51</v>
+      <c r="D2" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="65">
+      <c r="B3" s="78">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>50</v>
+      <c r="D3" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>50</v>
+      <c r="B4" s="78"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>53</v>
+      <c r="B5" s="78"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>6</v>
@@ -1929,227 +1964,235 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="88" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="77" t="s">
+      <c r="G6" s="70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="78"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="68"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="55"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="65">
+      <c r="B11" s="78">
         <v>2</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>53</v>
+      <c r="D11" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>53</v>
+      <c r="B12" s="78"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="72"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="59"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="60"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="81">
+      <c r="B15" s="71">
         <v>3</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="84"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="78"/>
-    </row>
-    <row r="18" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="2:7" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="66">
+        <v>43199</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="73"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="81">
+      <c r="B20" s="71">
         <v>4</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="74">
+      <c r="C20" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="61">
         <v>43198</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>66</v>
+      <c r="E20" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-    </row>
-    <row r="22" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-    </row>
-    <row r="23" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+    <row r="21" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="72"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="74"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
@@ -2157,7 +2200,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="74"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
@@ -2165,7 +2208,7 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
@@ -2173,7 +2216,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="74"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23"/>
@@ -2181,7 +2224,7 @@
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
@@ -2189,7 +2232,7 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -2197,7 +2240,7 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="74"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
@@ -2205,7 +2248,7 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="74"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
@@ -2213,7 +2256,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -2221,7 +2264,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="74"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -2229,7 +2272,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="74"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -2237,7 +2280,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="74"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -2245,7 +2288,7 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="74"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -2253,7 +2296,7 @@
     <row r="37" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="75"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="28"/>
@@ -2392,10 +2435,10 @@
         <v>43196</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -2407,9 +2450,9 @@
         <v>43196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="12"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
-    <sheet name="GEN MCU" sheetId="1" r:id="rId2"/>
-    <sheet name="GEN Main" sheetId="2" r:id="rId3"/>
-    <sheet name="Ctrl MCU" sheetId="4" r:id="rId4"/>
-    <sheet name="Ctrl Main" sheetId="3" r:id="rId5"/>
+    <sheet name="CUTE" sheetId="6" r:id="rId2"/>
+    <sheet name="GEN MCU" sheetId="1" r:id="rId3"/>
+    <sheet name="GEN Main" sheetId="2" r:id="rId4"/>
+    <sheet name="Ctrl MCU" sheetId="4" r:id="rId5"/>
+    <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +319,14 @@
   <si>
     <t>OP-Amp Output 및 ADC Jummper를 Open해도 PWM이 출력됨
  - current monitor및 Power limit algorism이 없는 것으로 판단됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC OS 변경 : Win CE Pro embedded -&gt; ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,6 +833,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,27 +909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,6 +920,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -926,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,7 +1006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1228,7 @@
     <col min="3" max="3" width="11.25" style="60" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="60" customWidth="1"/>
     <col min="5" max="6" width="11.875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="9" style="79"/>
+    <col min="7" max="7" width="9" style="71"/>
     <col min="8" max="8" width="48.125" style="60" customWidth="1"/>
     <col min="9" max="9" width="33.625" style="60" customWidth="1"/>
     <col min="10" max="16384" width="9" style="60"/>
@@ -1217,29 +1262,29 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="80">
+      <c r="B6" s="72">
         <v>1</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="74">
         <v>43194</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="75" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="84">
+      <c r="B7" s="76">
         <v>2</v>
       </c>
       <c r="C7" s="59" t="s">
@@ -1261,7 +1306,7 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="84">
+      <c r="B8" s="76">
         <v>3</v>
       </c>
       <c r="C8" s="59"/>
@@ -1273,7 +1318,7 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="84">
+      <c r="B9" s="76">
         <v>4</v>
       </c>
       <c r="C9" s="59"/>
@@ -1285,7 +1330,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="84">
+      <c r="B10" s="76">
         <v>5</v>
       </c>
       <c r="C10" s="59"/>
@@ -1297,7 +1342,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="84">
+      <c r="B11" s="76">
         <v>6</v>
       </c>
       <c r="C11" s="59"/>
@@ -1309,7 +1354,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="84">
+      <c r="B12" s="76">
         <v>7</v>
       </c>
       <c r="C12" s="59"/>
@@ -1321,7 +1366,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="84">
+      <c r="B13" s="76">
         <v>8</v>
       </c>
       <c r="C13" s="59"/>
@@ -1333,7 +1378,7 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="84">
+      <c r="B14" s="76">
         <v>9</v>
       </c>
       <c r="C14" s="59"/>
@@ -1345,7 +1390,7 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="84">
+      <c r="B15" s="76">
         <v>10</v>
       </c>
       <c r="C15" s="59"/>
@@ -1357,7 +1402,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="84">
+      <c r="B16" s="76">
         <v>11</v>
       </c>
       <c r="C16" s="59"/>
@@ -1369,7 +1414,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="84">
+      <c r="B17" s="76">
         <v>12</v>
       </c>
       <c r="C17" s="59"/>
@@ -1381,7 +1426,7 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="84">
+      <c r="B18" s="76">
         <v>13</v>
       </c>
       <c r="C18" s="59"/>
@@ -1393,7 +1438,7 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="84">
+      <c r="B19" s="76">
         <v>14</v>
       </c>
       <c r="C19" s="59"/>
@@ -1405,7 +1450,7 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="84">
+      <c r="B20" s="76">
         <v>15</v>
       </c>
       <c r="C20" s="59"/>
@@ -1417,7 +1462,7 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="84">
+      <c r="B21" s="76">
         <v>16</v>
       </c>
       <c r="C21" s="59"/>
@@ -1429,7 +1474,7 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="84">
+      <c r="B22" s="76">
         <v>17</v>
       </c>
       <c r="C22" s="59"/>
@@ -1441,7 +1486,7 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="84">
+      <c r="B23" s="76">
         <v>18</v>
       </c>
       <c r="C23" s="59"/>
@@ -1453,7 +1498,7 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="84">
+      <c r="B24" s="76">
         <v>19</v>
       </c>
       <c r="C24" s="59"/>
@@ -1465,7 +1510,7 @@
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="84">
+      <c r="B25" s="76">
         <v>20</v>
       </c>
       <c r="C25" s="59"/>
@@ -1477,7 +1522,7 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="84">
+      <c r="B26" s="76">
         <v>21</v>
       </c>
       <c r="C26" s="59"/>
@@ -1489,7 +1534,7 @@
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="84">
+      <c r="B27" s="76">
         <v>22</v>
       </c>
       <c r="C27" s="59"/>
@@ -1501,7 +1546,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="84">
+      <c r="B28" s="76">
         <v>23</v>
       </c>
       <c r="C28" s="59"/>
@@ -1513,7 +1558,7 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="84">
+      <c r="B29" s="76">
         <v>24</v>
       </c>
       <c r="C29" s="59"/>
@@ -1525,14 +1570,14 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="84">
+      <c r="B30" s="76">
         <v>25</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
-      <c r="G30" s="85"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="15"/>
       <c r="I30" s="16"/>
     </row>
@@ -1545,10 +1590,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="78">
+        <v>1</v>
+      </c>
+      <c r="C5" s="79">
+        <v>43202</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="83">
+        <v>2</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="83">
+        <v>3</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="83">
+        <v>4</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="87"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="83">
+        <v>5</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="88"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="83">
+        <v>6</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="88"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="83">
+        <v>7</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="88"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="83">
+        <v>8</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="87"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>9</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>10</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>11</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>12</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
+        <v>13</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
+        <v>15</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <v>16</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>17</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
+        <v>18</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="18">
+        <v>19</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>20</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>21</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <v>22</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="18">
+        <v>23</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="19">
+        <v>24</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B4" sqref="B4:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1870,7 +2178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1914,10 +2222,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="78">
+      <c r="B3" s="96">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="95" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="68" t="s">
@@ -1934,8 +2242,8 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="68" t="s">
         <v>52</v>
       </c>
@@ -1950,8 +2258,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="78"/>
-      <c r="C5" s="77"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="66" t="s">
         <v>52</v>
       </c>
@@ -1964,8 +2272,8 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
-      <c r="C6" s="77"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="68" t="s">
         <v>52</v>
       </c>
@@ -1980,8 +2288,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
-      <c r="C7" s="77"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="66" t="s">
         <v>52</v>
       </c>
@@ -1994,8 +2302,8 @@
       <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="77"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="66" t="s">
         <v>52</v>
       </c>
@@ -2008,16 +2316,16 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="66"/>
       <c r="E9" s="59"/>
       <c r="F9" s="64"/>
       <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="78"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="66" t="s">
         <v>52</v>
       </c>
@@ -2026,10 +2334,10 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="78">
+      <c r="B11" s="96">
         <v>2</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="95" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="66" t="s">
@@ -2046,8 +2354,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="66" t="s">
         <v>52</v>
       </c>
@@ -2060,8 +2368,8 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2070,18 +2378,18 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="66"/>
       <c r="E14" s="49"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="71">
+      <c r="B15" s="89">
         <v>3</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="92" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="66" t="s">
@@ -2098,8 +2406,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="66" t="s">
         <v>52</v>
       </c>
@@ -2112,8 +2420,8 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="66" t="s">
         <v>52</v>
       </c>
@@ -2126,8 +2434,8 @@
       <c r="G17" s="65"/>
     </row>
     <row r="18" spans="2:7" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="66">
         <v>43199</v>
       </c>
@@ -2140,18 +2448,18 @@
       <c r="G18" s="65"/>
     </row>
     <row r="19" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="73"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="66"/>
       <c r="E19" s="59"/>
       <c r="F19" s="64"/>
       <c r="G19" s="65"/>
     </row>
     <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="71">
+      <c r="B20" s="89">
         <v>4</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="92" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="61">
@@ -2166,32 +2474,32 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="61"/>
       <c r="E21" s="59"/>
       <c r="F21" s="64"/>
       <c r="G21" s="65"/>
     </row>
     <row r="22" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="61"/>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
       <c r="G22" s="65"/>
     </row>
     <row r="23" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="61"/>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
       <c r="G23" s="65"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="61"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -2318,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F26"/>
   <sheetViews>
@@ -2599,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +328,22 @@
   </si>
   <si>
     <t>Touch PC OS 변경 : Win CE Pro embedded -&gt; ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01,#02 정상 동작 1차:0Ohm, 2차:0.6Ohm, 1,2차 iso=수백 KOhm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snubber 회로 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류 제한용 inductor 추가 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Half bridge type study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,9 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +900,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,9 +937,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -971,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,7 +1020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,15 +1237,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="60"/>
-    <col min="2" max="2" width="6.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="60" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="60" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="9" style="71"/>
-    <col min="8" max="8" width="48.125" style="60" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="60" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="9" style="59"/>
+    <col min="2" max="2" width="6.5" style="59" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="59" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="59" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="9" style="70"/>
+    <col min="8" max="8" width="48.125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="59" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1239,22 +1253,22 @@
       <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="48" t="s">
@@ -1262,42 +1276,42 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="72">
+      <c r="B6" s="71">
         <v>1</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="73">
         <v>43194</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="73" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="76">
+      <c r="B7" s="75">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <v>43199</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="58" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1306,278 +1320,278 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="76">
+      <c r="B8" s="75">
         <v>3</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="76">
+      <c r="B9" s="75">
         <v>4</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>5</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>6</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="13"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>7</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="13"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>8</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="13"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>9</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="76">
+      <c r="B15" s="75">
         <v>10</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>11</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>12</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="13"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>13</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="59"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>14</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="76">
+      <c r="B20" s="75">
         <v>15</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>16</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>17</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="59"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="13"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>18</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="59"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="13"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="76">
+      <c r="B24" s="75">
         <v>19</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="59"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="13"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>20</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="76">
+      <c r="B26" s="75">
         <v>21</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="59"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>22</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="59"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="13"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>23</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="59"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>24</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <v>25</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="15"/>
       <c r="I30" s="16"/>
     </row>
@@ -1592,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,88 +1638,88 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="78">
+      <c r="B5" s="77">
         <v>1</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="78">
         <v>43202</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="82"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="83">
+      <c r="B6" s="82">
         <v>2</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="83">
+      <c r="B7" s="82">
         <v>3</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>4</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="52"/>
-      <c r="F8" s="87"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>5</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="88"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <v>6</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="52"/>
-      <c r="F10" s="88"/>
+      <c r="F10" s="87"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <v>7</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="88"/>
+      <c r="F11" s="87"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <v>8</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="87"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="10"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
@@ -1714,7 +1728,7 @@
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="10"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
@@ -1723,7 +1737,7 @@
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="10"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
@@ -1732,7 +1746,7 @@
       <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
@@ -1741,7 +1755,7 @@
       <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
@@ -1750,7 +1764,7 @@
       <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="10"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
@@ -1759,7 +1773,7 @@
       <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="10"/>
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
@@ -1768,7 +1782,7 @@
       <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="10"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12"/>
@@ -1777,7 +1791,7 @@
       <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="10"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
@@ -1786,7 +1800,7 @@
       <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
@@ -1795,7 +1809,7 @@
       <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="12"/>
@@ -1804,7 +1818,7 @@
       <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
@@ -1813,7 +1827,7 @@
       <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
@@ -1822,7 +1836,7 @@
       <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="10"/>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
@@ -1831,7 +1845,7 @@
       <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="10"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
@@ -1840,7 +1854,7 @@
       <c r="B28" s="19">
         <v>24</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="51"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
@@ -1856,7 +1870,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2183,10 +2197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G37"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F27:F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2208,7 @@
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="77.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
@@ -2208,7 +2222,7 @@
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -2228,303 +2242,323 @@
       <c r="C3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="69" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="96"/>
       <c r="C4" s="95"/>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="96"/>
       <c r="C5" s="95"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="69" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="96"/>
       <c r="C6" s="95"/>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="96"/>
       <c r="C7" s="95"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="96"/>
       <c r="C8" s="95"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="96"/>
       <c r="C9" s="95"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="65">
+        <v>43205</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="96"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="96">
-        <v>2</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="56" t="s">
+      <c r="D10" s="65">
+        <v>43205</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="F10" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="96"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="96"/>
       <c r="C12" s="95"/>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="96">
+        <v>2</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="96"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="96"/>
       <c r="C14" s="95"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="89">
+    <row r="15" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="96"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="65">
+        <v>43205</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="96"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="96"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="89">
         <v>3</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C18" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D18" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G18" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="66" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="90"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="66" t="s">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="90"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F20" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="2:7" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="66">
-        <v>43199</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-    </row>
-    <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="89">
-        <v>4</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="61">
-        <v>43198</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="2:7" s="56" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="90"/>
       <c r="C21" s="93"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-    </row>
-    <row r="22" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="91"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="D21" s="65">
+        <v>43199</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="91"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+    </row>
+    <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="89">
+        <v>4</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="60">
+        <v>43198</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="90"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="25" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="90"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+    </row>
+    <row r="26" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="90"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="61"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23"/>
@@ -2532,7 +2566,7 @@
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
@@ -2540,7 +2574,7 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -2548,7 +2582,7 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
@@ -2556,7 +2590,7 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
@@ -2564,7 +2598,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -2572,7 +2606,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="61"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -2580,7 +2614,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="61"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -2588,7 +2622,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="61"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -2596,29 +2630,53 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="61"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="25"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B18:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -15,7 +15,6 @@
     <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -938,6 +937,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -985,7 +987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2199,8 +2201,8 @@
   </sheetPr>
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,16 @@
   </si>
   <si>
     <t>Half bridge type study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generator operating condition 제한 필요
+ 1) Chamber 압력 상태에따라 Load가 낮아져 과전류 발생 가능
+ 2) 장시간 사용시 발열로 인해 Load가 낮아져 과전류 발생 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -899,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,7 +1000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,7 +1035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,7 +1247,7 @@
   <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1609,7 +1622,7 @@
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1885,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2024,19 +2037,21 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="18">
+      <c r="B12" s="35">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="36">
         <v>43196</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
@@ -2201,8 +2216,8 @@
   </sheetPr>
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2238,10 +2253,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="96">
+      <c r="B3" s="97">
         <v>1</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="96" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="67" t="s">
@@ -2258,8 +2273,8 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="67" t="s">
         <v>52</v>
       </c>
@@ -2274,8 +2289,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="67" t="s">
         <v>52</v>
       </c>
@@ -2290,8 +2305,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="67" t="s">
         <v>52</v>
       </c>
@@ -2306,8 +2321,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="65" t="s">
         <v>52</v>
       </c>
@@ -2320,8 +2335,8 @@
       <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="65" t="s">
         <v>52</v>
       </c>
@@ -2334,8 +2349,8 @@
       <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="65">
         <v>43205</v>
       </c>
@@ -2348,8 +2363,8 @@
       <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="65">
         <v>43205</v>
       </c>
@@ -2361,17 +2376,23 @@
       </c>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="63"/>
+    <row r="11" spans="2:7" s="56" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="97"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="65">
+        <v>43212</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="96"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="65" t="s">
         <v>52</v>
       </c>
@@ -2380,10 +2401,10 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="96">
+      <c r="B13" s="97">
         <v>2</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="96" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="65" t="s">
@@ -2400,8 +2421,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="96"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="65" t="s">
         <v>52</v>
       </c>
@@ -2414,8 +2435,8 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="96"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="65">
         <v>43205</v>
       </c>
@@ -2428,8 +2449,8 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="96"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="65" t="s">
         <v>52</v>
       </c>
@@ -2438,18 +2459,18 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="96"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="65"/>
       <c r="E17" s="49"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="89">
+      <c r="B18" s="90">
         <v>3</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="93" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="65" t="s">
@@ -2466,8 +2487,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="90"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="65" t="s">
         <v>52</v>
       </c>
@@ -2480,8 +2501,8 @@
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="65" t="s">
         <v>52</v>
       </c>
@@ -2494,8 +2515,8 @@
       <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:7" s="56" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="65">
         <v>43199</v>
       </c>
@@ -2508,18 +2529,18 @@
       <c r="G21" s="64"/>
     </row>
     <row r="22" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="91"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="65"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
       <c r="G22" s="64"/>
     </row>
     <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="89">
+      <c r="B23" s="90">
         <v>4</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="60">
@@ -2534,32 +2555,32 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="60"/>
       <c r="E24" s="58"/>
       <c r="F24" s="63"/>
       <c r="G24" s="64"/>
     </row>
     <row r="25" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="60"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63"/>
       <c r="G25" s="64"/>
     </row>
     <row r="26" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="90"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="60"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="60"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,30 @@
     <t>Generator operating condition 제한 필요
  1) Chamber 압력 상태에따라 Load가 낮아져 과전류 발생 가능
  2) 장시간 사용시 발열로 인해 Load가 낮아져 과전류 발생 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V CON 변경 - 기존 version과 동일한 CON 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R, C PCB PAD 확장 - PAD 간격은 유지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -939,6 +963,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,25 +1909,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="50" customWidth="1"/>
-    <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="69.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="50" customWidth="1"/>
+    <col min="6" max="6" width="66.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="69.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1908,16 +1935,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="42">
         <v>1</v>
       </c>
@@ -1925,16 +1955,19 @@
         <v>43150</v>
       </c>
       <c r="D5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="F5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="35">
         <v>2</v>
       </c>
@@ -1942,16 +1975,19 @@
         <v>43150</v>
       </c>
       <c r="D6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="35">
         <v>3</v>
       </c>
@@ -1959,16 +1995,19 @@
         <v>43150</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="F7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="G7" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="35">
         <v>4</v>
       </c>
@@ -1976,16 +2015,19 @@
         <v>43150</v>
       </c>
       <c r="D8" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="G8" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="35">
         <v>5</v>
       </c>
@@ -1993,16 +2035,19 @@
         <v>43169</v>
       </c>
       <c r="D9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="G9" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>6</v>
       </c>
@@ -2010,16 +2055,19 @@
         <v>43193</v>
       </c>
       <c r="D10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="F10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="G10" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="35">
         <v>7</v>
       </c>
@@ -2027,16 +2075,19 @@
         <v>43193</v>
       </c>
       <c r="D11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="F11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="G11" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="35">
         <v>8</v>
       </c>
@@ -2044,160 +2095,195 @@
         <v>43196</v>
       </c>
       <c r="D12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="F12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>43213</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="60">
+        <v>43213</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>11</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="60"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>12</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="60"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>13</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="60"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>14</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="60"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>15</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="60"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>16</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="60"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>17</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="60"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="18">
         <v>18</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="60"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="18">
         <v>19</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="60"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>20</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="60"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>21</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="60"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>22</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="60"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>23</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="60"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="19">
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="61"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>25</v>
       </c>
@@ -2216,7 +2302,7 @@
   </sheetPr>
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Femto work" sheetId="5" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="Ctrl MCU" sheetId="4" r:id="rId5"/>
     <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$29</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Board dead 원인 파악</t>
-  </si>
-  <si>
     <t>Transformer 1,2차 coil중 어느쪽이 dead되는지 확인 - 1차측이 죽을 것으로 예상됨</t>
   </si>
   <si>
@@ -231,10 +231,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Transducer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,13 +346,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V CON 변경 - 기존 version과 동일한 CON 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R, C PCB PAD 확장 - PAD 간격은 유지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Generator operating condition 제한 필요
+ =&gt; Chamber의 상태에 따라 Load value가 변할 수 있음.
  1) Chamber 압력 상태에따라 Load가 낮아져 과전류 발생 가능
  2) 장시간 사용시 발열로 인해 Load가 낮아져 과전류 발생 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version</t>
+    <t>2차측에 2.5A 이상의 current가 흐르므로 2차측에 사용하는 것이 맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN MCU에 기능 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load가 낮아지더라도 견딜수 있는 Power MOSFET 사용
+ - 500V 75A 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDL100N50F ( On-Semi ) 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma LF Generator Main PCB Issue and Review list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,19 +402,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+5V CON 변경 - 기존 version과 동일한 CON 사용?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R, C PCB PAD 확장 - PAD 간격은 유지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고민중</t>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset IC test - VCC에 따른 Reset 동작 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma LF Generator MCU PCB Issue and Review List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board dead
+원인 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current 
+Transducer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +472,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -691,11 +747,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,9 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +1006,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,8 +1036,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,7 +1137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,7 +1172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1279,15 +1389,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="59"/>
-    <col min="2" max="2" width="6.5" style="59" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="59" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="59" customWidth="1"/>
-    <col min="7" max="7" width="9" style="70"/>
-    <col min="8" max="8" width="48.125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="59" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="2" width="6.5" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="58" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9" style="69"/>
+    <col min="8" max="8" width="48.125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="58" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1295,345 +1405,345 @@
       <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="G5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="70">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="57" t="s">
+      <c r="C6" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="72">
+        <v>43194</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="74">
         <v>2</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="71">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="s">
+      <c r="C7" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="59">
+        <v>43199</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="73">
-        <v>43194</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="75">
-        <v>2</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="60">
-        <v>43199</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="58"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>5</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="58"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="13"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>7</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="13"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>8</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="13"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>9</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="58"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="58"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>11</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>12</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="13"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>13</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="58"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <v>14</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>15</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="58"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>16</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <v>17</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="58"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="13"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>18</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="58"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="13"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>19</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="58"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="13"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <v>20</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="58"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <v>21</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>22</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="58"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="13"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <v>23</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <v>24</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="58"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <v>25</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="76"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="15"/>
       <c r="I30" s="16"/>
     </row>
@@ -1676,92 +1786,92 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="77">
+      <c r="B5" s="76">
         <v>1</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="77">
         <v>43202</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="81"/>
+      <c r="D5" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <v>2</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <v>3</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>4</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="52"/>
-      <c r="F8" s="86"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <v>5</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>6</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="52"/>
-      <c r="F10" s="87"/>
+      <c r="F10" s="86"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <v>7</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="87"/>
+      <c r="F11" s="86"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <v>8</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="86"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="10"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
@@ -1770,7 +1880,7 @@
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="10"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
@@ -1779,7 +1889,7 @@
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="10"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
@@ -1788,7 +1898,7 @@
       <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
@@ -1797,7 +1907,7 @@
       <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
@@ -1806,7 +1916,7 @@
       <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="10"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
@@ -1815,7 +1925,7 @@
       <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="10"/>
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
@@ -1824,7 +1934,7 @@
       <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="10"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12"/>
@@ -1833,7 +1943,7 @@
       <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="10"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
@@ -1842,7 +1952,7 @@
       <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
@@ -1851,7 +1961,7 @@
       <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="12"/>
@@ -1860,7 +1970,7 @@
       <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
@@ -1869,7 +1979,7 @@
       <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
@@ -1878,7 +1988,7 @@
       <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="10"/>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
@@ -1887,7 +1997,7 @@
       <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="10"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
@@ -1896,7 +2006,7 @@
       <c r="B28" s="19">
         <v>24</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="51"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
@@ -1909,389 +2019,401 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="50" customWidth="1"/>
-    <col min="6" max="6" width="66.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="69.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D3" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="42">
+      <c r="G3" s="114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C4" s="43">
         <v>43150</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>43150</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="36">
         <v>43150</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="36">
         <v>43150</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="36">
-        <v>43150</v>
+        <v>43169</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>6</v>
+      </c>
+      <c r="C9" s="36">
+        <v>43193</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
-        <v>5</v>
-      </c>
-      <c r="C9" s="36">
-        <v>43169</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="40" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="36">
         <v>43193</v>
       </c>
       <c r="D10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43196</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43213</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="59">
+        <v>43213</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
-        <v>7</v>
-      </c>
-      <c r="C11" s="36">
-        <v>43193</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
-        <v>8</v>
-      </c>
-      <c r="C12" s="36">
-        <v>43196</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="18">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43213</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="98" t="s">
-        <v>85</v>
-      </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>10</v>
-      </c>
-      <c r="C14" s="60">
-        <v>43213</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43216</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="13"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="60"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="13"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="60"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="13"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="13"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="60"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="13"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="60"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="13"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="60"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="13"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="13"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="60"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="13"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="60"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="60"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="13"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="13"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="18">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19">
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="19">
         <v>24</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>25</v>
-      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2300,382 +2422,394 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="72.5" customWidth="1"/>
+    <col min="7" max="7" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="104"/>
+    </row>
+    <row r="2" spans="1:7" s="55" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="57" t="s">
+      <c r="C3" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="93">
+        <v>1</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="98"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="98"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="F8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="98"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="64">
+        <v>43205</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="98"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="64">
+        <v>43205</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:7" s="55" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="98"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="64">
+        <v>43212</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="63"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="98"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="98">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="97">
-        <v>1</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="C14" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="98"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="98"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="64">
+        <v>43205</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="63"/>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="98"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="64">
+        <v>43216</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="98"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="91">
+        <v>3</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="58" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="92"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="58" t="s">
+      <c r="E20" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="92"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="65">
-        <v>43205</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="65">
-        <v>43205</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="2:7" s="56" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="97"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="65">
-        <v>43212</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="97"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="97">
-        <v>2</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="65">
-        <v>43205</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="90">
-        <v>3</v>
-      </c>
-      <c r="C18" s="93" t="s">
+      <c r="E21" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="2:7" s="56" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="91"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="65">
-        <v>43199</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="64"/>
-    </row>
-    <row r="22" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="92"/>
       <c r="C22" s="95"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-    </row>
-    <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="90">
+      <c r="D22" s="64">
+        <v>43199</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="93"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="91">
         <v>4</v>
       </c>
-      <c r="C23" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="60">
+      <c r="C24" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="59">
         <v>43198</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="91"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-    </row>
-    <row r="25" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-    </row>
-    <row r="26" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="91"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="92"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="92"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+    </row>
+    <row r="27" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="92"/>
       <c r="C27" s="95"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="60"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
@@ -2683,7 +2817,7 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="60"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -2691,7 +2825,7 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="60"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
@@ -2699,7 +2833,7 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="60"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
@@ -2707,7 +2841,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="60"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -2715,7 +2849,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="60"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -2723,7 +2857,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="60"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -2731,7 +2865,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="60"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -2739,7 +2873,7 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="60"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -2747,7 +2881,7 @@
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="60"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
@@ -2755,7 +2889,7 @@
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="60"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
@@ -2763,33 +2897,41 @@
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="25"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="60"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="25"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2824,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2835,10 +2977,10 @@
         <v>43169</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2850,10 +2992,10 @@
         <v>43193</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -2865,10 +3007,10 @@
         <v>43193</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -2880,10 +3022,10 @@
         <v>43193</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -2895,10 +3037,10 @@
         <v>43193</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -2910,10 +3052,10 @@
         <v>43196</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -2925,10 +3067,10 @@
         <v>43196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -3096,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -3110,10 +3252,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -3121,7 +3263,7 @@
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -3129,7 +3271,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -3137,7 +3279,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -3152,10 +3294,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="23"/>
     </row>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -15,14 +15,14 @@
     <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,57 +370,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2차측에 2.5A 이상의 current가 흐르므로 2차측에 사용하는 것이 맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN MCU에 기능 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load가 낮아지더라도 견딜수 있는 Power MOSFET 사용
+ - 500V 75A 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDL100N50F ( On-Semi ) 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma LF Generator Main PCB Issue and Review list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset IC test - VCC에 따른 Reset 동작 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma LF Generator MCU PCB Issue and Review List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board dead
+원인 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current 
+Transducer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6V에서 Reset 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto 내부 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Generator operating condition 제한 필요
  =&gt; Chamber의 상태에 따라 Load value가 변할 수 있음.
  1) Chamber 압력 상태에따라 Load가 낮아져 과전류 발생 가능
- 2) 장시간 사용시 발열로 인해 Load가 낮아져 과전류 발생 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차측에 2.5A 이상의 current가 흐르므로 2차측에 사용하는 것이 맞음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEN MCU에 기능 구현 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load가 낮아지더라도 견딜수 있는 Power MOSFET 사용
- - 500V 75A 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDL100N50F ( On-Semi ) 검토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma LF Generator Main PCB Issue and Review list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset IC test - VCC에 따른 Reset 동작 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma LF Generator MCU PCB Issue and Review List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board dead
-원인 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current 
-Transducer</t>
+ 2) 장시간 사용시 발열로 인해 Load가 낮아져 과전류 발생 가능
+ 3) 전극의 구조가 넓은 경우, Load가 낮아져 과전류 발생 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load의 변화에 따른 Power를 계산하여 Pulse On time을 조정하여 Power 보상
+ - Current transducer의 feedback 사용 ( F/W 작업 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1012,28 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,14 +1040,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,6 +1059,39 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,7 +1188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,28 +2057,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>94</v>
+      <c r="A1" s="98" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="105" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2263,22 +2279,24 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
+      <c r="B14" s="35">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="36">
         <v>43216</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="39" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
@@ -2422,10 +2440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2440,59 +2458,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="104"/>
+      <c r="A1" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:7" s="55" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="105" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="93">
+      <c r="B4" s="109">
         <v>1</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="103" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="66" t="s">
         <v>51</v>
       </c>
@@ -2507,8 +2525,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="97"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="66" t="s">
         <v>51</v>
       </c>
@@ -2523,8 +2541,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="66" t="s">
         <v>51</v>
       </c>
@@ -2539,8 +2557,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="64" t="s">
         <v>51</v>
       </c>
@@ -2553,8 +2571,8 @@
       <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="64" t="s">
         <v>51</v>
       </c>
@@ -2567,8 +2585,8 @@
       <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="64">
         <v>43205</v>
       </c>
@@ -2581,8 +2599,8 @@
       <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="64">
         <v>43205</v>
       </c>
@@ -2594,9 +2612,9 @@
       </c>
       <c r="G11" s="63"/>
     </row>
-    <row r="12" spans="1:7" s="55" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="97"/>
+    <row r="12" spans="1:7" s="55" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="115"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="64">
         <v>43212</v>
       </c>
@@ -2604,13 +2622,13 @@
         <v>50</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="64" t="s">
         <v>51</v>
       </c>
@@ -2619,10 +2637,10 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="98">
+      <c r="B14" s="115">
         <v>2</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="114" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="64" t="s">
@@ -2639,8 +2657,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="64" t="s">
         <v>51</v>
       </c>
@@ -2653,8 +2671,8 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="64">
         <v>43205</v>
       </c>
@@ -2667,8 +2685,8 @@
       <c r="G16" s="63"/>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="64">
         <v>43216</v>
       </c>
@@ -2676,43 +2694,41 @@
         <v>50</v>
       </c>
       <c r="F17" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="103" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+    </row>
+    <row r="18" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="115"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="64">
+        <v>43216</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="91">
+      <c r="B19" s="115"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="107">
         <v>3</v>
       </c>
-      <c r="C19" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="92"/>
-      <c r="C20" s="95"/>
+      <c r="C20" s="116" t="s">
+        <v>94</v>
+      </c>
       <c r="D20" s="64" t="s">
         <v>51</v>
       </c>
@@ -2720,103 +2736,113 @@
         <v>50</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="108"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="92"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="99" t="s">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="108"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E22" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F22" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="102" t="s">
+      <c r="G22" s="95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="108"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="64">
+        <v>43199</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="92"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="64">
-        <v>43199</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="93"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="91">
+    <row r="24" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+    </row>
+    <row r="25" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="107">
         <v>4</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C25" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D25" s="36">
         <v>43198</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="65" t="s">
+      <c r="E25" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="39" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="92"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="59"/>
-      <c r="E26" s="62"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="62"/>
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="95"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="59"/>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
       <c r="G27" s="63"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
-      <c r="C28" s="96"/>
+    <row r="28" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="108"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="59"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -2910,24 +2936,32 @@
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="C4:C13"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -15,14 +15,14 @@
     <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,11 @@
   <si>
     <t>Load의 변화에 따른 Power를 계산하여 Pulse On time을 조정하여 Power 보상
  - Current transducer의 feedback 사용 ( F/W 작업 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220VAC 외부 S/W를 사용하는지 확인
+ - 사용하지 않는 경우, P1 CON 회로 수정(Fuse를 SMPS-L line에 연결)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1060,6 +1065,12 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,7 +1196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2440,10 +2448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2489,10 +2497,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="109">
+      <c r="B4" s="111">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="115" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -2509,8 +2517,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="66" t="s">
         <v>51</v>
       </c>
@@ -2525,8 +2533,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="115"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="66" t="s">
         <v>51</v>
       </c>
@@ -2541,8 +2549,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="115"/>
-      <c r="C7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="66" t="s">
         <v>51</v>
       </c>
@@ -2557,8 +2565,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="115"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="64" t="s">
         <v>51</v>
       </c>
@@ -2571,8 +2579,8 @@
       <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="115"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="64" t="s">
         <v>51</v>
       </c>
@@ -2585,8 +2593,8 @@
       <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="64">
         <v>43205</v>
       </c>
@@ -2599,8 +2607,8 @@
       <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="64">
         <v>43205</v>
       </c>
@@ -2613,8 +2621,8 @@
       <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" s="55" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="115"/>
-      <c r="C12" s="114"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="64">
         <v>43212</v>
       </c>
@@ -2627,8 +2635,8 @@
       <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="115"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="64" t="s">
         <v>51</v>
       </c>
@@ -2637,10 +2645,10 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="115">
+      <c r="B14" s="117">
         <v>2</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="116" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="64" t="s">
@@ -2657,8 +2665,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="64" t="s">
         <v>51</v>
       </c>
@@ -2671,8 +2679,8 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="115"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="64">
         <v>43205</v>
       </c>
@@ -2685,8 +2693,8 @@
       <c r="G16" s="63"/>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="115"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="64">
         <v>43216</v>
       </c>
@@ -2701,8 +2709,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="115"/>
-      <c r="C18" s="114"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="64">
         <v>43216</v>
       </c>
@@ -2714,37 +2722,35 @@
       </c>
       <c r="G18" s="96"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="115"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+    <row r="19" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="117"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="64">
+        <v>43228</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="107">
+      <c r="B20" s="117"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="109">
         <v>3</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C21" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="108"/>
-      <c r="C21" s="111"/>
       <c r="D21" s="64" t="s">
         <v>51</v>
       </c>
@@ -2752,105 +2758,113 @@
         <v>50</v>
       </c>
       <c r="F21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="110"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="108"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="92" t="s">
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="110"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E23" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F23" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="G23" s="95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="64">
+    <row r="24" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="110"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="64">
         <v>43199</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F24" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="109"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-    </row>
-    <row r="25" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="107">
+    <row r="25" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="111"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="109">
         <v>4</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C26" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D26" s="36">
         <v>43198</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E26" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F26" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-    </row>
     <row r="27" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="108"/>
-      <c r="C27" s="111"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="62"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="62"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="108"/>
-      <c r="C28" s="111"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="59"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="109"/>
-      <c r="C29" s="112"/>
+    <row r="29" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="110"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="59"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -2944,24 +2958,32 @@
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
     <mergeCell ref="C4:C13"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma LF Issue List V1.0.xlsx
+++ b/Plasma LF Issue List V1.0.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Femto work" sheetId="5" r:id="rId1"/>
-    <sheet name="CUTE" sheetId="6" r:id="rId2"/>
-    <sheet name="GEN MCU" sheetId="1" r:id="rId3"/>
-    <sheet name="GEN Main" sheetId="2" r:id="rId4"/>
-    <sheet name="Ctrl MCU" sheetId="4" r:id="rId5"/>
-    <sheet name="Ctrl Main" sheetId="3" r:id="rId6"/>
+    <sheet name="CUTE" sheetId="6" r:id="rId1"/>
+    <sheet name="GEN MCU" sheetId="1" r:id="rId2"/>
+    <sheet name="GEN Main" sheetId="2" r:id="rId3"/>
+    <sheet name="Ctrl MCU" sheetId="4" r:id="rId4"/>
+    <sheet name="Ctrl Main" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'GEN Main'!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'GEN Main'!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,22 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program UI image 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,42 +270,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF Generator Power별로 구별 방법?
- 1) Power별 구별하여 Program install
- 2) Generator MCU F/W 구별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OP-Amp Output 및 ADC Jummper를 Open해도 PWM이 출력됨
  - current monitor및 Power limit algorism이 없는 것으로 판단됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch PC OS 변경 : Win CE Pro embedded -&gt; ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -905,12 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,9 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,27 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,14 +943,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1045,7 +958,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,13 +969,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1161,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1405,385 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="58"/>
-    <col min="2" max="2" width="6.5" style="58" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="58" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="9" style="69"/>
-    <col min="8" max="8" width="48.125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="58" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="70">
-        <v>1</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="72">
-        <v>43194</v>
-      </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="74">
-        <v>2</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="59">
-        <v>43199</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="74">
-        <v>3</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="74">
-        <v>4</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="74">
-        <v>5</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="74">
-        <v>6</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="74">
-        <v>7</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="74">
-        <v>8</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="74">
-        <v>9</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="74">
-        <v>10</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="74">
-        <v>11</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="74">
-        <v>12</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="74">
-        <v>13</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="74">
-        <v>14</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="74">
-        <v>15</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="74">
-        <v>16</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="74">
-        <v>17</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="74">
-        <v>18</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="74">
-        <v>19</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="74">
-        <v>20</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="74">
-        <v>21</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="74">
-        <v>22</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="74">
-        <v>23</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="74">
-        <v>24</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="74">
-        <v>25</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1814,88 +1352,82 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="76">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="77">
-        <v>43202</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="80"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="81">
+      <c r="B6" s="71">
         <v>2</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="81">
+      <c r="B7" s="71">
         <v>3</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="81">
+      <c r="B8" s="71">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="81">
+      <c r="B9" s="71">
         <v>5</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="81">
+      <c r="B10" s="71">
         <v>6</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="86"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="81">
+      <c r="B11" s="71">
         <v>7</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="86"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="81">
+      <c r="B12" s="71">
         <v>8</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="85"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="10"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
@@ -1904,7 +1436,7 @@
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="10"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
@@ -1913,7 +1445,7 @@
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="10"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
@@ -1922,7 +1454,7 @@
       <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
@@ -1931,7 +1463,7 @@
       <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
@@ -1940,7 +1472,7 @@
       <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="10"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
@@ -1949,7 +1481,7 @@
       <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="10"/>
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
@@ -1958,7 +1490,7 @@
       <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="10"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12"/>
@@ -1967,7 +1499,7 @@
       <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="10"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
@@ -1976,7 +1508,7 @@
       <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
@@ -1985,7 +1517,7 @@
       <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="12"/>
@@ -1994,7 +1526,7 @@
       <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
@@ -2003,7 +1535,7 @@
       <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
@@ -2012,7 +1544,7 @@
       <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="10"/>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
@@ -2021,7 +1553,7 @@
       <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="10"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
@@ -2030,14 +1562,416 @@
       <c r="B28" s="19">
         <v>24</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43">
+        <v>43150</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>43150</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>43150</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="35">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36">
+        <v>43150</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="35">
+        <v>5</v>
+      </c>
+      <c r="C8" s="36">
+        <v>43169</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>6</v>
+      </c>
+      <c r="C9" s="36">
+        <v>43193</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>7</v>
+      </c>
+      <c r="C10" s="36">
+        <v>43193</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43196</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43213</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="56">
+        <v>43213</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="35">
+        <v>11</v>
+      </c>
+      <c r="C14" s="36">
+        <v>43216</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="18">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="19">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2046,412 +1980,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="42">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43">
-        <v>43150</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
-        <v>2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>43150</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
-        <v>3</v>
-      </c>
-      <c r="C6" s="36">
-        <v>43150</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36">
-        <v>43150</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
-        <v>5</v>
-      </c>
-      <c r="C8" s="36">
-        <v>43169</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
-        <v>6</v>
-      </c>
-      <c r="C9" s="36">
-        <v>43193</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
-        <v>7</v>
-      </c>
-      <c r="C10" s="36">
-        <v>43193</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
-        <v>8</v>
-      </c>
-      <c r="C11" s="36">
-        <v>43196</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="18">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>43213</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="18">
-        <v>10</v>
-      </c>
-      <c r="C13" s="59">
-        <v>43213</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
-        <v>11</v>
-      </c>
-      <c r="C14" s="36">
-        <v>43216</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
-        <v>16</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="18">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="18">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="18">
-        <v>20</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="18">
-        <v>21</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="18">
-        <v>22</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="18">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="19">
-        <v>24</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2459,413 +1991,413 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="72.5" customWidth="1"/>
     <col min="7" max="7" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="97"/>
-    </row>
-    <row r="2" spans="1:7" s="55" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="D2" s="58"/>
+      <c r="A1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="87"/>
+    </row>
+    <row r="2" spans="1:7" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="99" t="s">
+      <c r="D3" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="101">
+        <v>1</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="107"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="107"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="107"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="111">
-        <v>1</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="101" t="s">
+      <c r="F8" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="107"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="61">
+        <v>43205</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="103" t="s">
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="107"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="61">
+        <v>43205</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" s="53" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="107"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="61">
+        <v>43212</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="107"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="117"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="117"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="117"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="117"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="117"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="64">
-        <v>43205</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="64">
-        <v>43205</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:7" s="55" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="117"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="64">
-        <v>43212</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="63"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="117"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="117">
+      <c r="B14" s="107">
         <v>2</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>50</v>
+      <c r="D14" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="117"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>50</v>
+      <c r="B15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="117"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="64">
+    <row r="16" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="61">
         <v>43205</v>
       </c>
-      <c r="E16" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="63"/>
+      <c r="E16" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="117"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="64">
+      <c r="B17" s="107"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="61">
         <v>43216</v>
       </c>
-      <c r="E17" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="E17" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="107"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="61">
+        <v>43216</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="86"/>
+    </row>
+    <row r="19" spans="2:7" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="107"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="61">
+        <v>43228</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="117"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="64">
-        <v>43216</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="96"/>
-    </row>
-    <row r="19" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="117"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="64">
-        <v>43228</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="96"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="117"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="109">
+      <c r="B21" s="99">
         <v>3</v>
       </c>
-      <c r="C21" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="G21" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="100"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="110"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="93" t="s">
+    <row r="23" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="100"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="110"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="64">
+      <c r="F23" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="100"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="61">
         <v>43199</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>71</v>
+      <c r="E24" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>61</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="101"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="109">
+      <c r="B26" s="99">
         <v>4</v>
       </c>
-      <c r="C26" s="112" t="s">
-        <v>61</v>
+      <c r="C26" s="102" t="s">
+        <v>57</v>
       </c>
       <c r="D26" s="36">
         <v>43198</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="108" t="s">
-        <v>62</v>
+      <c r="F26" s="98" t="s">
+        <v>58</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="110"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-    </row>
-    <row r="28" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="110"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="110"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="100"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="100"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="100"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="111"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
@@ -2873,7 +2405,7 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="59"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
@@ -2881,7 +2413,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="59"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -2889,7 +2421,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="59"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -2897,7 +2429,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="59"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -2905,7 +2437,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="59"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -2913,7 +2445,7 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="59"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -2921,7 +2453,7 @@
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="59"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
@@ -2929,7 +2461,7 @@
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="59"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
@@ -2937,7 +2469,7 @@
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="25"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="59"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
@@ -2945,7 +2477,7 @@
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="25"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="59"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
@@ -2953,7 +2485,7 @@
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="25"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="59"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
@@ -2961,7 +2493,7 @@
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="25"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="59"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
@@ -2969,7 +2501,7 @@
     <row r="43" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="60"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
@@ -2991,7 +2523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F26"/>
   <sheetViews>
@@ -3108,10 +2640,10 @@
         <v>43196</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -3123,9 +2655,9 @@
         <v>43196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="12"/>
@@ -3272,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
